--- a/pred_ohlcv/54_21/2019-10-27 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 MTL ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>16386.30850362</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>13524.31100362</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>12999.33940362</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -730,7 +730,7 @@
         <v>26006.04130361999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>14704.88060361999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>14705.96570361999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>12153.75350361999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>12154.75350361999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>11931.93640361999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>10301.93640361999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>9803.423803619993</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>9803.423803619993</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>9804.627103619992</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>8816.811103619993</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-16485.69839638</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-16485.69839638</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-10842.58189638</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-10842.58189638</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-12360.38669638</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-12831.82939638</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-15379.82939638</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-170518.95589638</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-170517.95589638</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-176225.18149638</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-176219.18149638</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-180902.76149638</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-191105.27119638</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-190756.93309638</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-190756.93309638</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-189786.30989638</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-189443.51509638</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-189443.51509638</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-189443.51509638</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-192113.51509638</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-192113.51509638</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-192113.51509638</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-192112.51509638</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-192112.51509638</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-192112.51509638</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-195319.64719638</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-195172.39769638</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-195174.30769638</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-195173.30769638</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-195173.30769638</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-189404.16849638</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-193151.84419638</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-193150.84419638</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-193151.84419638</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-197835.42419638</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-197835.42419638</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-197835.42419638</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-200185.42419638</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-200184.42419638</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-200184.42419638</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-200184.42419638</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-200184.42419638</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-197894.86569638</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-176913.07919638</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-176913.07919638</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-193413.17669638</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-192457.69169638</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-192457.69169638</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-192593.66389638</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-192592.56389638</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-192322.56959638</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-193736.69229638</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-193736.69229638</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-193989.77549638</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-193989.77549638</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-193885.73339638</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-193885.73339638</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-196719.02909638</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-209025.94329638</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-211434.14849638</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-211433.14849638</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-216372.29889638</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-216372.29889638</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-215610.29889638</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-213037.43731446</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-213037.43731446</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-213648.43731446</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-213648.43731446</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-213648.43731446</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-214689.97541446</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-214635.49101446</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-214635.49101446</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-213889.33011446</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-214275.76521446</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-214335.33521446</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-222064.54481446</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-233201.46831446</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-233201.46831446</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-233200.46831446</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-234547.49191446</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-234546.39191446</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-263263.09841446</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-263262.09841446</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-262312.90621446</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-266798.28281446</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-266798.28281446</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-266561.3409144601</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-271335.8603144601</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-311170.2100144601</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-318055.5537144601</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-318932.79931446</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-318932.79931446</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-317231.88201446</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-319124.96521446</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-316139.84861446</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-316594.59201446</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-305808.78761446</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-305774.88461446</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-306409.41071446</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>16385.30850362</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>16386.30850362</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>13524.31100362</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>12999.33940362</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>12999.33940362</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>12999.33940362</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -756,7 +756,7 @@
         <v>14704.88060361999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>12153.75350361999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>12154.75350361999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>11931.93640361999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>10301.93640361999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>10306.42380361999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>8816.811103619993</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-5837.582696380007</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-16211.87389638001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-16211.87389638001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-16485.69839638</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-10842.58189638</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-10842.58189638</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-12360.38669638</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-27525.98029638</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-27525.98029638</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-27534.98029638</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-192112.51509638</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-195319.64719638</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-195172.39769638</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-195174.30769638</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-195173.30769638</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-195173.30769638</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-189404.16849638</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-193150.84419638</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-193151.84419638</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-197835.42419638</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-197835.42419638</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-197835.42419638</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-200185.42419638</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-200184.42419638</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-200184.42419638</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-200184.42419638</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-197894.86569638</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-176913.07919638</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-176913.07919638</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-193413.17669638</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-192457.69169638</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-192457.69169638</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-192593.66389638</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-192592.56389638</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-192322.56959638</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-193736.69229638</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-193736.69229638</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-193989.77549638</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-193989.77549638</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-193885.73339638</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-193885.73339638</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-196719.02909638</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-211434.14849638</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-211433.14849638</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-216372.29889638</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-213037.43731446</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-213037.43731446</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-213648.43731446</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-213648.43731446</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-213648.43731446</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-214689.97541446</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-214635.49101446</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-213889.33011446</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-214275.76521446</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-214335.33521446</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-222064.54481446</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-233201.46831446</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-233200.46831446</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-263262.09841446</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-266798.28281446</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-266561.3409144601</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-271335.8603144601</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-311170.2100144601</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-318055.5537144601</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-318932.79931446</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-318932.79931446</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-317231.88201446</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-317230.88201446</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-319124.96521446</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-316139.84861446</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-316594.59201446</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-305808.78761446</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-305774.88461446</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-313554.66161446</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-313553.66161446</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-313575.99521446</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-322320.54621446</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
